--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Lgals1-Ptprc.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Lgals1-Ptprc.xlsx
@@ -537,16 +537,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>40.31719433333334</v>
+        <v>21.267222</v>
       </c>
       <c r="H2">
-        <v>120.951583</v>
+        <v>63.801666</v>
       </c>
       <c r="I2">
-        <v>0.1054453461914981</v>
+        <v>0.06271644651145813</v>
       </c>
       <c r="J2">
-        <v>0.1054453461914981</v>
+        <v>0.06271644651145813</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -555,28 +555,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>0.1546356666666667</v>
+        <v>0.467036</v>
       </c>
       <c r="N2">
-        <v>0.463907</v>
+        <v>1.401108</v>
       </c>
       <c r="O2">
-        <v>0.0006541814359458435</v>
+        <v>0.001972893265924874</v>
       </c>
       <c r="P2">
-        <v>0.0006541814359458435</v>
+        <v>0.001972893265924874</v>
       </c>
       <c r="Q2">
-        <v>6.234476223864557</v>
+        <v>9.932558293992001</v>
       </c>
       <c r="R2">
-        <v>56.11028601478101</v>
+        <v>89.39302464592799</v>
       </c>
       <c r="S2">
-        <v>6.898038798536079E-05</v>
+        <v>0.0001237328549851933</v>
       </c>
       <c r="T2">
-        <v>6.898038798536081E-05</v>
+        <v>0.0001237328549851933</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>40.31719433333334</v>
+        <v>21.267222</v>
       </c>
       <c r="H3">
-        <v>120.951583</v>
+        <v>63.801666</v>
       </c>
       <c r="I3">
-        <v>0.1054453461914981</v>
+        <v>0.06271644651145813</v>
       </c>
       <c r="J3">
-        <v>0.1054453461914981</v>
+        <v>0.06271644651145813</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>0.976031</v>
       </c>
       <c r="O3">
-        <v>0.001376356384162467</v>
+        <v>0.001374344438283074</v>
       </c>
       <c r="P3">
-        <v>0.001376356384162467</v>
+        <v>0.001374344438283074</v>
       </c>
       <c r="Q3">
-        <v>13.11694383411922</v>
+        <v>6.919155985293999</v>
       </c>
       <c r="R3">
-        <v>118.052494507073</v>
+        <v>62.272403867646</v>
       </c>
       <c r="S3">
-        <v>0.0001451303754108899</v>
+        <v>8.619399945190038E-05</v>
       </c>
       <c r="T3">
-        <v>0.0001451303754108899</v>
+        <v>8.619399945190038E-05</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,46 +661,46 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>40.31719433333334</v>
+        <v>21.267222</v>
       </c>
       <c r="H4">
-        <v>120.951583</v>
+        <v>63.801666</v>
       </c>
       <c r="I4">
-        <v>0.1054453461914981</v>
+        <v>0.06271644651145813</v>
       </c>
       <c r="J4">
-        <v>0.1054453461914981</v>
+        <v>0.06271644651145813</v>
       </c>
       <c r="K4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>3.999992666666667</v>
+        <v>0.02089333333333333</v>
       </c>
       <c r="N4">
-        <v>11.999978</v>
+        <v>0.06268</v>
       </c>
       <c r="O4">
-        <v>0.01692184605828007</v>
+        <v>8.825939892440207E-05</v>
       </c>
       <c r="P4">
-        <v>0.01692184605828007</v>
+        <v>8.825939892440207E-05</v>
       </c>
       <c r="Q4">
-        <v>161.2684816739083</v>
+        <v>0.44434315832</v>
       </c>
       <c r="R4">
-        <v>1451.416335065174</v>
+        <v>3.99908842488</v>
       </c>
       <c r="S4">
-        <v>0.001784329915814579</v>
+        <v>5.535315871775708E-06</v>
       </c>
       <c r="T4">
-        <v>0.001784329915814579</v>
+        <v>5.535315871775708E-06</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,16 +723,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>40.31719433333334</v>
+        <v>21.267222</v>
       </c>
       <c r="H5">
-        <v>120.951583</v>
+        <v>63.801666</v>
       </c>
       <c r="I5">
-        <v>0.1054453461914981</v>
+        <v>0.06271644651145813</v>
       </c>
       <c r="J5">
-        <v>0.1054453461914981</v>
+        <v>0.06271644651145813</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>231.9004236666667</v>
+        <v>235.9131673333333</v>
       </c>
       <c r="N5">
-        <v>695.701271</v>
+        <v>707.739502</v>
       </c>
       <c r="O5">
-        <v>0.9810476161216116</v>
+        <v>0.9965645028968676</v>
       </c>
       <c r="P5">
-        <v>0.9810476161216116</v>
+        <v>0.9965645028968676</v>
       </c>
       <c r="Q5">
-        <v>9349.574446951336</v>
+        <v>5017.217702401148</v>
       </c>
       <c r="R5">
-        <v>84146.170022562</v>
+        <v>45154.95932161033</v>
       </c>
       <c r="S5">
-        <v>0.1034469055122872</v>
+        <v>0.06250098434114926</v>
       </c>
       <c r="T5">
-        <v>0.1034469055122873</v>
+        <v>0.06250098434114926</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>412.424102</v>
       </c>
       <c r="I6">
-        <v>0.3595505005759843</v>
+        <v>0.4054090708715844</v>
       </c>
       <c r="J6">
-        <v>0.3595505005759843</v>
+        <v>0.4054090708715843</v>
       </c>
       <c r="K6">
         <v>2</v>
@@ -803,28 +803,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M6">
-        <v>0.1546356666666667</v>
+        <v>0.467036</v>
       </c>
       <c r="N6">
-        <v>0.463907</v>
+        <v>1.401108</v>
       </c>
       <c r="O6">
-        <v>0.0006541814359458435</v>
+        <v>0.001972893265924874</v>
       </c>
       <c r="P6">
-        <v>0.0006541814359458435</v>
+        <v>0.001972893265924874</v>
       </c>
       <c r="Q6">
-        <v>21.25849198739045</v>
+        <v>64.20563430055734</v>
       </c>
       <c r="R6">
-        <v>191.326427886514</v>
+        <v>577.850708705016</v>
       </c>
       <c r="S6">
-        <v>0.0002352112627618443</v>
+        <v>0.000799828825867409</v>
       </c>
       <c r="T6">
-        <v>0.0002352112627618443</v>
+        <v>0.0007998288258674089</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>412.424102</v>
       </c>
       <c r="I7">
-        <v>0.3595505005759843</v>
+        <v>0.4054090708715844</v>
       </c>
       <c r="J7">
-        <v>0.3595505005759843</v>
+        <v>0.4054090708715843</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,10 +871,10 @@
         <v>0.976031</v>
       </c>
       <c r="O7">
-        <v>0.001376356384162467</v>
+        <v>0.001374344438283074</v>
       </c>
       <c r="P7">
-        <v>0.001376356384162467</v>
+        <v>0.001374344438283074</v>
       </c>
       <c r="Q7">
         <v>44.72652318879578</v>
@@ -883,10 +883,10 @@
         <v>402.538708699162</v>
       </c>
       <c r="S7">
-        <v>0.0004948696268965668</v>
+        <v>0.0005571717017818705</v>
       </c>
       <c r="T7">
-        <v>0.0004948696268965668</v>
+        <v>0.0005571717017818704</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,40 +915,40 @@
         <v>412.424102</v>
       </c>
       <c r="I8">
-        <v>0.3595505005759843</v>
+        <v>0.4054090708715844</v>
       </c>
       <c r="J8">
-        <v>0.3595505005759843</v>
+        <v>0.4054090708715843</v>
       </c>
       <c r="K8">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M8">
-        <v>3.999992666666667</v>
+        <v>0.02089333333333333</v>
       </c>
       <c r="N8">
-        <v>11.999978</v>
+        <v>0.06268</v>
       </c>
       <c r="O8">
-        <v>0.01692184605828007</v>
+        <v>8.825939892440207E-05</v>
       </c>
       <c r="P8">
-        <v>0.01692184605828007</v>
+        <v>8.825939892440207E-05</v>
       </c>
       <c r="Q8">
-        <v>549.8977945188618</v>
+        <v>2.872304745928889</v>
       </c>
       <c r="R8">
-        <v>4949.080150669756</v>
+        <v>25.85074271336</v>
       </c>
       <c r="S8">
-        <v>0.006084258220924346</v>
+        <v>3.578116091362636E-05</v>
       </c>
       <c r="T8">
-        <v>0.006084258220924346</v>
+        <v>3.578116091362635E-05</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,10 +977,10 @@
         <v>412.424102</v>
       </c>
       <c r="I9">
-        <v>0.3595505005759843</v>
+        <v>0.4054090708715844</v>
       </c>
       <c r="J9">
-        <v>0.3595505005759843</v>
+        <v>0.4054090708715843</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>231.9004236666667</v>
+        <v>235.9131673333333</v>
       </c>
       <c r="N9">
-        <v>695.701271</v>
+        <v>707.739502</v>
       </c>
       <c r="O9">
-        <v>0.9810476161216116</v>
+        <v>0.9965645028968676</v>
       </c>
       <c r="P9">
-        <v>0.9810476161216116</v>
+        <v>0.9965645028968676</v>
       </c>
       <c r="Q9">
-        <v>31880.44132804819</v>
+        <v>32432.09206247525</v>
       </c>
       <c r="R9">
-        <v>286923.9719524336</v>
+        <v>291888.8285622772</v>
       </c>
       <c r="S9">
-        <v>0.3527361614654015</v>
+        <v>0.4040162891830215</v>
       </c>
       <c r="T9">
-        <v>0.3527361614654015</v>
+        <v>0.4040162891830214</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>122.756256</v>
+        <v>121.820091</v>
       </c>
       <c r="H10">
-        <v>368.268768</v>
+        <v>365.460273</v>
       </c>
       <c r="I10">
-        <v>0.321055969422711</v>
+        <v>0.3592440621169263</v>
       </c>
       <c r="J10">
-        <v>0.321055969422711</v>
+        <v>0.3592440621169263</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1051,28 +1051,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M10">
-        <v>0.1546356666666667</v>
+        <v>0.467036</v>
       </c>
       <c r="N10">
-        <v>0.463907</v>
+        <v>1.401108</v>
       </c>
       <c r="O10">
-        <v>0.0006541814359458435</v>
+        <v>0.001972893265924874</v>
       </c>
       <c r="P10">
-        <v>0.0006541814359458435</v>
+        <v>0.001972893265924874</v>
       </c>
       <c r="Q10">
-        <v>18.982495484064</v>
+        <v>56.894368020276</v>
       </c>
       <c r="R10">
-        <v>170.842459356576</v>
+        <v>512.0493121824841</v>
       </c>
       <c r="S10">
-        <v>0.0002100288550959339</v>
+        <v>0.0007087501909739813</v>
       </c>
       <c r="T10">
-        <v>0.0002100288550959339</v>
+        <v>0.0007087501909739813</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>122.756256</v>
+        <v>121.820091</v>
       </c>
       <c r="H11">
-        <v>368.268768</v>
+        <v>365.460273</v>
       </c>
       <c r="I11">
-        <v>0.321055969422711</v>
+        <v>0.3592440621169263</v>
       </c>
       <c r="J11">
-        <v>0.321055969422711</v>
+        <v>0.3592440621169263</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>0.976031</v>
       </c>
       <c r="O11">
-        <v>0.001376356384162467</v>
+        <v>0.001374344438283074</v>
       </c>
       <c r="P11">
-        <v>0.001376356384162467</v>
+        <v>0.001374344438283074</v>
       </c>
       <c r="Q11">
-        <v>39.937970433312</v>
+        <v>39.633395079607</v>
       </c>
       <c r="R11">
-        <v>359.441733899808</v>
+        <v>356.700555716463</v>
       </c>
       <c r="S11">
-        <v>0.000441887433188418</v>
+        <v>0.0004937250787566169</v>
       </c>
       <c r="T11">
-        <v>0.000441887433188418</v>
+        <v>0.0004937250787566169</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,46 +1157,46 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>122.756256</v>
+        <v>121.820091</v>
       </c>
       <c r="H12">
-        <v>368.268768</v>
+        <v>365.460273</v>
       </c>
       <c r="I12">
-        <v>0.321055969422711</v>
+        <v>0.3592440621169263</v>
       </c>
       <c r="J12">
-        <v>0.321055969422711</v>
+        <v>0.3592440621169263</v>
       </c>
       <c r="K12">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L12">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M12">
-        <v>3.999992666666667</v>
+        <v>0.02089333333333333</v>
       </c>
       <c r="N12">
-        <v>11.999978</v>
+        <v>0.06268</v>
       </c>
       <c r="O12">
-        <v>0.01692184605828007</v>
+        <v>8.825939892440207E-05</v>
       </c>
       <c r="P12">
-        <v>0.01692184605828007</v>
+        <v>8.825939892440207E-05</v>
       </c>
       <c r="Q12">
-        <v>491.0241237874561</v>
+        <v>2.54522776796</v>
       </c>
       <c r="R12">
-        <v>4419.217114087104</v>
+        <v>22.90704991164</v>
       </c>
       <c r="S12">
-        <v>0.005432859690662988</v>
+        <v>3.170666498960048E-05</v>
       </c>
       <c r="T12">
-        <v>0.005432859690662988</v>
+        <v>3.170666498960048E-05</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>122.756256</v>
+        <v>121.820091</v>
       </c>
       <c r="H13">
-        <v>368.268768</v>
+        <v>365.460273</v>
       </c>
       <c r="I13">
-        <v>0.321055969422711</v>
+        <v>0.3592440621169263</v>
       </c>
       <c r="J13">
-        <v>0.321055969422711</v>
+        <v>0.3592440621169263</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>231.9004236666667</v>
+        <v>235.9131673333333</v>
       </c>
       <c r="N13">
-        <v>695.701271</v>
+        <v>707.739502</v>
       </c>
       <c r="O13">
-        <v>0.9810476161216116</v>
+        <v>0.9965645028968676</v>
       </c>
       <c r="P13">
-        <v>0.9810476161216116</v>
+        <v>0.9965645028968676</v>
       </c>
       <c r="Q13">
-        <v>28467.2277741338</v>
+        <v>28738.9635126449</v>
       </c>
       <c r="R13">
-        <v>256205.0499672042</v>
+        <v>258650.6716138041</v>
       </c>
       <c r="S13">
-        <v>0.3149711934437636</v>
+        <v>0.3580098801822061</v>
       </c>
       <c r="T13">
-        <v>0.3149711934437636</v>
+        <v>0.3580098801822061</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,16 +1281,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>81.80342533333332</v>
+        <v>58.539182</v>
       </c>
       <c r="H14">
-        <v>245.410276</v>
+        <v>175.617546</v>
       </c>
       <c r="I14">
-        <v>0.2139481838098067</v>
+        <v>0.1726304205000311</v>
       </c>
       <c r="J14">
-        <v>0.2139481838098067</v>
+        <v>0.1726304205000311</v>
       </c>
       <c r="K14">
         <v>2</v>
@@ -1299,28 +1299,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M14">
-        <v>0.1546356666666667</v>
+        <v>0.467036</v>
       </c>
       <c r="N14">
-        <v>0.463907</v>
+        <v>1.401108</v>
       </c>
       <c r="O14">
-        <v>0.0006541814359458435</v>
+        <v>0.001972893265924874</v>
       </c>
       <c r="P14">
-        <v>0.0006541814359458435</v>
+        <v>0.001972893265924874</v>
       </c>
       <c r="Q14">
-        <v>12.64972721203689</v>
+        <v>27.339905404552</v>
       </c>
       <c r="R14">
-        <v>113.847544908332</v>
+        <v>246.059148640968</v>
       </c>
       <c r="S14">
-        <v>0.0001399609301027046</v>
+        <v>0.0003405813940982908</v>
       </c>
       <c r="T14">
-        <v>0.0001399609301027046</v>
+        <v>0.0003405813940982907</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,16 +1343,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>81.80342533333332</v>
+        <v>58.539182</v>
       </c>
       <c r="H15">
-        <v>245.410276</v>
+        <v>175.617546</v>
       </c>
       <c r="I15">
-        <v>0.2139481838098067</v>
+        <v>0.1726304205000311</v>
       </c>
       <c r="J15">
-        <v>0.2139481838098067</v>
+        <v>0.1726304205000311</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,22 +1367,22 @@
         <v>0.976031</v>
       </c>
       <c r="O15">
-        <v>0.001376356384162467</v>
+        <v>0.001374344438283074</v>
       </c>
       <c r="P15">
-        <v>0.001376356384162467</v>
+        <v>0.001374344438283074</v>
       </c>
       <c r="Q15">
-        <v>26.61422634383955</v>
+        <v>19.04535211554733</v>
       </c>
       <c r="R15">
-        <v>239.528037094556</v>
+        <v>171.408169039926</v>
       </c>
       <c r="S15">
-        <v>0.0002944689486665924</v>
+        <v>0.0002372536582926861</v>
       </c>
       <c r="T15">
-        <v>0.0002944689486665924</v>
+        <v>0.0002372536582926861</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,46 +1405,46 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>81.80342533333332</v>
+        <v>58.539182</v>
       </c>
       <c r="H16">
-        <v>245.410276</v>
+        <v>175.617546</v>
       </c>
       <c r="I16">
-        <v>0.2139481838098067</v>
+        <v>0.1726304205000311</v>
       </c>
       <c r="J16">
-        <v>0.2139481838098067</v>
+        <v>0.1726304205000311</v>
       </c>
       <c r="K16">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L16">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M16">
-        <v>3.999992666666667</v>
+        <v>0.02089333333333333</v>
       </c>
       <c r="N16">
-        <v>11.999978</v>
+        <v>0.06268</v>
       </c>
       <c r="O16">
-        <v>0.01692184605828007</v>
+        <v>8.825939892440207E-05</v>
       </c>
       <c r="P16">
-        <v>0.01692184605828007</v>
+        <v>8.825939892440207E-05</v>
       </c>
       <c r="Q16">
-        <v>327.2131014415476</v>
+        <v>1.223078642586667</v>
       </c>
       <c r="R16">
-        <v>2944.917912973928</v>
+        <v>11.00770778328</v>
       </c>
       <c r="S16">
-        <v>0.003620398230878156</v>
+        <v>1.523625714939952E-05</v>
       </c>
       <c r="T16">
-        <v>0.003620398230878157</v>
+        <v>1.523625714939952E-05</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,16 +1467,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>81.80342533333332</v>
+        <v>58.539182</v>
       </c>
       <c r="H17">
-        <v>245.410276</v>
+        <v>175.617546</v>
       </c>
       <c r="I17">
-        <v>0.2139481838098067</v>
+        <v>0.1726304205000311</v>
       </c>
       <c r="J17">
-        <v>0.2139481838098067</v>
+        <v>0.1726304205000311</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1485,28 +1485,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>231.9004236666667</v>
+        <v>235.9131673333333</v>
       </c>
       <c r="N17">
-        <v>695.701271</v>
+        <v>707.739502</v>
       </c>
       <c r="O17">
-        <v>0.9810476161216116</v>
+        <v>0.9965645028968676</v>
       </c>
       <c r="P17">
-        <v>0.9810476161216116</v>
+        <v>0.9965645028968676</v>
       </c>
       <c r="Q17">
-        <v>18970.24899218453</v>
+        <v>13810.16383872246</v>
       </c>
       <c r="R17">
-        <v>170732.2409296608</v>
+        <v>124291.4745485021</v>
       </c>
       <c r="S17">
-        <v>0.2098933557001592</v>
+        <v>0.1720373491904907</v>
       </c>
       <c r="T17">
-        <v>0.2098933557001592</v>
+        <v>0.1720373491904907</v>
       </c>
     </row>
   </sheetData>
